--- a/ComparativoResultados_Integra_Beasley_VRPSolver.xlsx
+++ b/ComparativoResultados_Integra_Beasley_VRPSolver.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luismiguelescobarfalcon/Dropbox/IntegraSA/RosteringSchedulingKennyC/Implementaciones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennycardenas/Desktop/Integra/Tesis RIB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C776DA-DA3D-D241-9EBA-BC2D81EAEC36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EEA657-4CAA-4947-BE34-B920AA034F13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2400" windowWidth="32620" windowHeight="15760" activeTab="1" xr2:uid="{14534316-F259-FF4C-93AB-FCDC74872C69}"/>
+    <workbookView xWindow="4400" yWindow="820" windowWidth="46780" windowHeight="26600" activeTab="1" xr2:uid="{14534316-F259-FF4C-93AB-FCDC74872C69}"/>
   </bookViews>
   <sheets>
     <sheet name="Beasley96" sheetId="1" r:id="rId1"/>
     <sheet name="Comparativo" sheetId="2" r:id="rId2"/>
+    <sheet name="Comparar" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="42">
   <si>
     <t>Número de tareas (bloques de trabajo)</t>
   </si>
@@ -123,6 +124,45 @@
   <si>
     <t>Costo Asociado de la Solución</t>
   </si>
+  <si>
+    <t>Gap interno</t>
+  </si>
+  <si>
+    <t>comparacion con columna H</t>
+  </si>
+  <si>
+    <t>que tanto peor es tener el mismo K</t>
+  </si>
+  <si>
+    <t>F.O Costo interbloque</t>
+  </si>
+  <si>
+    <t>Passmark buscar</t>
+  </si>
+  <si>
+    <t>Formulacion completa de Beasly</t>
+  </si>
+  <si>
+    <t>la heuristica con</t>
+  </si>
+  <si>
+    <t>comparacion entre heuristica y modelo, sobre todo en los K.</t>
+  </si>
+  <si>
+    <t>impacto del punto inicial del modelado</t>
+  </si>
+  <si>
+    <t>incidencia del corte K en el modelo</t>
+  </si>
+  <si>
+    <t>pesimo resultado</t>
+  </si>
+  <si>
+    <t>APRI (Derigs &amp; Schaffer)</t>
+  </si>
+  <si>
+    <t>B&amp;P(Derigs &amp; Schaffer)</t>
+  </si>
 </sst>
 </file>
 
@@ -145,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,7 +206,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -384,65 +448,139 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -461,47 +599,39 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -833,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DAEB73-6B86-F74F-80E0-7E2DB5A96DA2}">
-  <dimension ref="A1:R67"/>
+  <dimension ref="A1:AT67"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="M1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:AT9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -844,7 +974,7 @@
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -878,7 +1008,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>50</v>
       </c>
@@ -899,8 +1029,47 @@
       <c r="G2" s="4">
         <v>1872</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="5">
@@ -917,8 +1086,43 @@
       <c r="G3" s="5">
         <v>2092</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR3" s="53"/>
+      <c r="AS3" s="53"/>
+      <c r="AT3" s="53"/>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="5">
@@ -937,8 +1141,41 @@
       <c r="G4" s="5">
         <v>2399</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="47"/>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="53"/>
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="53"/>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="5">
@@ -955,8 +1192,37 @@
       <c r="G5" s="5">
         <v>2706</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="53"/>
+      <c r="AT5" s="53"/>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="6">
@@ -973,8 +1239,37 @@
       <c r="G6" s="6">
         <v>3139</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="41"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="47"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="47"/>
+      <c r="AP6" s="47"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="53"/>
+      <c r="AS6" s="53"/>
+      <c r="AT6" s="53"/>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>100</v>
       </c>
@@ -995,8 +1290,39 @@
       <c r="G7" s="4">
         <v>3905</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="47"/>
+      <c r="AK7" s="47"/>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="47"/>
+      <c r="AO7" s="47"/>
+      <c r="AP7" s="47"/>
+      <c r="AQ7" s="53"/>
+      <c r="AR7" s="53"/>
+      <c r="AS7" s="53"/>
+      <c r="AT7" s="53"/>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="5">
@@ -1013,8 +1339,39 @@
       <c r="G8" s="5">
         <v>4107</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="41"/>
+      <c r="AE8" s="41"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="47"/>
+      <c r="AK8" s="47"/>
+      <c r="AL8" s="47"/>
+      <c r="AM8" s="47"/>
+      <c r="AN8" s="47"/>
+      <c r="AO8" s="47"/>
+      <c r="AP8" s="47"/>
+      <c r="AQ8" s="53"/>
+      <c r="AR8" s="53"/>
+      <c r="AS8" s="53"/>
+      <c r="AT8" s="53"/>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="5">
@@ -1031,8 +1388,37 @@
       <c r="G9" s="5">
         <v>4310</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="47"/>
+      <c r="AJ9" s="47"/>
+      <c r="AK9" s="47"/>
+      <c r="AL9" s="47"/>
+      <c r="AM9" s="47"/>
+      <c r="AN9" s="47"/>
+      <c r="AO9" s="47"/>
+      <c r="AP9" s="47"/>
+      <c r="AQ9" s="53"/>
+      <c r="AR9" s="53"/>
+      <c r="AS9" s="53"/>
+      <c r="AT9" s="53"/>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="5">
@@ -1050,7 +1436,7 @@
         <v>4514</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="6">
@@ -1068,7 +1454,7 @@
         <v>4812</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>150</v>
       </c>
@@ -1090,7 +1476,7 @@
         <v>5347</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="5">
@@ -1110,7 +1496,7 @@
         <v>5551</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="5">
@@ -1128,7 +1514,7 @@
         <v>5754</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="5">
@@ -1148,7 +1534,7 @@
         <v>5999</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="6">
@@ -2002,6 +2388,10 @@
       <c r="F67" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AE2:AG2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2011,104 +2401,112 @@
   <dimension ref="A1:AI29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC4" sqref="AC4"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" customWidth="1"/>
-    <col min="22" max="22" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="28"/>
+    <col min="4" max="5" width="10.83203125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="28"/>
+    <col min="7" max="10" width="10.83203125" style="41"/>
+    <col min="11" max="14" width="10.83203125" style="28"/>
+    <col min="15" max="18" width="10.83203125" style="41"/>
+    <col min="19" max="21" width="10.83203125" style="47"/>
+    <col min="22" max="22" width="9.33203125" style="47" customWidth="1"/>
+    <col min="23" max="27" width="10.83203125" style="47"/>
+    <col min="28" max="31" width="10.83203125" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="26" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="39" t="s">
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="26" t="s">
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="18" t="s">
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="26" t="s">
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="18" t="s">
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="32" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="32" t="s">
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
     </row>
     <row r="3" spans="1:35" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -2117,91 +2515,91 @@
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AB3" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AD3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AE3" s="48" t="s">
         <v>12</v>
       </c>
       <c r="AF3" s="3" t="s">
@@ -2224,97 +2622,97 @@
       <c r="B4" s="10">
         <v>173</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="23">
         <v>27</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="23">
         <f>Beasley96!F6</f>
         <v>2</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="23">
         <v>3139</v>
       </c>
-      <c r="F4" s="15">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="F4" s="24">
+        <v>0</v>
+      </c>
+      <c r="G4" s="34">
         <v>27</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="34">
         <v>0.87</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="34">
         <v>3139</v>
       </c>
-      <c r="J4" s="15">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
+      <c r="J4" s="35">
+        <v>0</v>
+      </c>
+      <c r="K4" s="23">
         <v>27</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="23">
         <v>0.89</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="23">
         <v>3139</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="24">
         <f>(M4-E4)/E4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="34">
         <v>27</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="34">
         <v>0.89</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="34">
         <v>4636</v>
       </c>
-      <c r="R4" s="15">
+      <c r="R4" s="35">
         <f>(Q4-I4)/I4</f>
         <v>0.47690347244345332</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="43">
         <v>27</v>
       </c>
-      <c r="T4" s="15">
+      <c r="T4" s="44">
         <v>7.8051090240000001E-3</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="43">
         <v>3982</v>
       </c>
-      <c r="V4" s="15">
+      <c r="V4" s="44">
         <f>(S4-G4)/G4</f>
         <v>0</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="43">
         <v>27</v>
       </c>
-      <c r="X4" s="15">
+      <c r="X4" s="44">
         <v>2.7168757920000002</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Y4" s="43">
         <v>3139</v>
       </c>
-      <c r="Z4" s="15">
+      <c r="Z4" s="44">
         <f>(W4-G4)/G4</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="15">
+      <c r="AA4" s="44">
         <f>(Y4-I4)/I4</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AB4" s="49">
         <v>27</v>
       </c>
-      <c r="AC4" s="15">
+      <c r="AC4" s="50">
         <v>0.15110206600000001</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AD4" s="49">
         <v>3139</v>
       </c>
-      <c r="AE4" s="15">
+      <c r="AE4" s="50">
         <f>(AD4-I4)/I4</f>
         <v>0</v>
       </c>
@@ -2332,97 +2730,97 @@
       <c r="B5" s="10">
         <v>715</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="23">
         <v>44</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="23">
         <f>Beasley96!F11</f>
         <v>8</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="23">
         <v>4812</v>
       </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="F5" s="24">
+        <v>0</v>
+      </c>
+      <c r="G5" s="34">
         <v>42</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="34">
         <v>0.91</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="34">
         <v>5458</v>
       </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
+      <c r="J5" s="35">
+        <v>0</v>
+      </c>
+      <c r="K5" s="23">
         <v>44</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="23">
         <v>0.94</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="23">
         <v>4812</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="24">
         <f t="shared" ref="N5:N13" si="0">(M5-E5)/E5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="34">
         <v>42</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="34">
         <v>1.06</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="34">
         <v>7326</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="35">
         <f t="shared" ref="R5:R13" si="1">(Q5-I5)/I5</f>
         <v>0.34224990839135216</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="43">
         <v>45</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="44">
         <v>4.3256998060000003E-2</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="43">
         <v>6981</v>
       </c>
-      <c r="V5" s="15">
+      <c r="V5" s="44">
         <f t="shared" ref="V5:V13" si="2">(S5-G5)/G5</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="43">
         <v>42</v>
       </c>
-      <c r="X5" s="15">
+      <c r="X5" s="44">
         <v>3600.012048</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Y5" s="43">
         <v>5458</v>
       </c>
-      <c r="Z5" s="15">
+      <c r="Z5" s="44">
         <f t="shared" ref="Z5:Z13" si="3">(W5-G5)/G5</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="15">
+      <c r="AA5" s="44">
         <f>(Y5-I5)/I5</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AB5" s="49">
         <v>42</v>
       </c>
-      <c r="AC5" s="15">
+      <c r="AC5" s="50">
         <v>18.603191850000002</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AD5" s="49">
         <v>5458</v>
       </c>
-      <c r="AE5" s="15">
+      <c r="AE5" s="50">
         <f>(AD5-I5)/I5</f>
         <v>0</v>
       </c>
@@ -2440,97 +2838,97 @@
       <c r="B6" s="10">
         <v>1355</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="23">
         <v>69</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="23">
         <f>Beasley96!F16</f>
         <v>150</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="23">
         <v>6275</v>
       </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="24">
+        <v>0</v>
+      </c>
+      <c r="G6" s="34">
         <v>67</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="34">
         <v>0.97</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="34">
         <v>7164</v>
       </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
+      <c r="J6" s="35">
+        <v>0</v>
+      </c>
+      <c r="K6" s="23">
         <v>69</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="23">
         <v>1.1200000000000001</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="23">
         <v>6275</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="34">
         <v>67</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="34">
         <v>0.99</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="34">
         <v>10723</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="35">
         <f t="shared" si="1"/>
         <v>0.49678950307091013</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="43">
         <v>71</v>
       </c>
-      <c r="T6" s="15">
+      <c r="T6" s="44">
         <v>0.14070296290000001</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="43">
         <v>8342</v>
       </c>
-      <c r="V6" s="15">
-        <f t="shared" si="2"/>
+      <c r="V6" s="44">
+        <f>(S6-G6)/G6</f>
         <v>5.9701492537313432E-2</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="43">
         <v>67</v>
       </c>
-      <c r="X6" s="15">
+      <c r="X6" s="44">
         <v>3600.022614</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Y6" s="43">
         <v>7213</v>
       </c>
-      <c r="Z6" s="15">
+      <c r="Z6" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="15">
+      <c r="AA6" s="44">
         <f>(Y6-I6)/I6</f>
         <v>6.8397543271915134E-3</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AB6" s="49">
         <v>67</v>
       </c>
-      <c r="AC6" s="15">
+      <c r="AC6" s="50">
         <v>3600</v>
       </c>
-      <c r="AD6" s="6" t="s">
+      <c r="AD6" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AE6" s="15" t="s">
+      <c r="AE6" s="50" t="s">
         <v>8</v>
       </c>
       <c r="AF6" s="6"/>
@@ -2547,96 +2945,96 @@
       <c r="B7" s="10">
         <v>2543</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="23">
         <v>93</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="23">
         <f>Beasley96!F21</f>
         <v>61</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="23">
         <v>6914</v>
       </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="F7" s="24">
+        <v>0</v>
+      </c>
+      <c r="G7" s="34">
         <v>84</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="34">
         <v>1.31</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="34">
         <v>9679</v>
       </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
+      <c r="J7" s="35">
+        <v>0</v>
+      </c>
+      <c r="K7" s="23">
         <v>93</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="23">
         <v>1.1200000000000001</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="23">
         <v>6914</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="34">
         <v>84</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="34">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="34">
         <v>13205</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="35">
         <f t="shared" si="1"/>
         <v>0.36429383200743881</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="43">
         <v>89</v>
       </c>
-      <c r="T7" s="15">
+      <c r="T7" s="44">
         <v>0.180079937</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="43">
         <v>9686</v>
       </c>
-      <c r="V7" s="15">
+      <c r="V7" s="44">
         <f t="shared" si="2"/>
         <v>5.9523809523809521E-2</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="43">
         <v>85</v>
       </c>
-      <c r="X7" s="15">
+      <c r="X7" s="44">
         <v>3600.0194879999999</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Y7" s="43">
         <v>9255</v>
       </c>
-      <c r="Z7" s="15">
+      <c r="Z7" s="44">
         <f t="shared" si="3"/>
         <v>1.1904761904761904E-2</v>
       </c>
-      <c r="AA7" s="15" t="s">
+      <c r="AA7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AB7" s="49">
         <v>84</v>
       </c>
-      <c r="AC7" s="15">
+      <c r="AC7" s="50">
         <v>3600</v>
       </c>
-      <c r="AD7" s="6" t="s">
+      <c r="AD7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AE7" s="15" t="s">
+      <c r="AE7" s="50" t="s">
         <v>8</v>
       </c>
       <c r="AF7" s="6"/>
@@ -2653,97 +3051,97 @@
       <c r="B8" s="10">
         <v>4152</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="23">
         <v>108</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="23">
         <f>Beasley96!F26</f>
         <v>205</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="23">
         <v>8406</v>
       </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F8" s="24">
+        <v>0</v>
+      </c>
+      <c r="G8" s="34">
         <v>105</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="34">
         <v>1.51</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="34">
         <v>9383</v>
       </c>
-      <c r="J8" s="15">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
+      <c r="J8" s="35">
+        <v>0</v>
+      </c>
+      <c r="K8" s="23">
         <v>108</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="23">
         <v>1.34</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="23">
         <v>8406</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="34">
         <v>105</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="34">
         <v>13.08</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="34">
         <v>13780</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="35">
         <f t="shared" si="1"/>
         <v>0.4686134498561228</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="43">
         <v>107</v>
       </c>
-      <c r="T8" s="15">
+      <c r="T8" s="44">
         <v>0.41926503180000002</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="43">
         <v>14468</v>
       </c>
-      <c r="V8" s="15">
+      <c r="V8" s="44">
         <f t="shared" si="2"/>
         <v>1.9047619047619049E-2</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="43">
         <v>105</v>
       </c>
-      <c r="X8" s="15">
+      <c r="X8" s="44">
         <v>3600.062723</v>
       </c>
-      <c r="Y8" s="6">
+      <c r="Y8" s="43">
         <v>10193</v>
       </c>
-      <c r="Z8" s="15">
+      <c r="Z8" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="15">
+      <c r="AA8" s="44">
         <f>(Y8-I8)/I8</f>
         <v>8.6326334860918688E-2</v>
       </c>
-      <c r="AB8" s="6">
+      <c r="AB8" s="49">
         <v>105</v>
       </c>
-      <c r="AC8" s="15">
+      <c r="AC8" s="50">
         <v>3600</v>
       </c>
-      <c r="AD8" s="6" t="s">
+      <c r="AD8" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AE8" s="15" t="s">
+      <c r="AE8" s="50" t="s">
         <v>8</v>
       </c>
       <c r="AF8" s="6"/>
@@ -2760,97 +3158,97 @@
       <c r="B9" s="11">
         <v>6108</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="25">
         <v>130</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="25">
         <f>Beasley96!F30</f>
         <v>260</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="25">
         <v>9580</v>
       </c>
-      <c r="F9" s="16">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="F9" s="29">
+        <v>0</v>
+      </c>
+      <c r="G9" s="34">
         <v>130</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="36">
         <v>1.62</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="36">
         <v>9580</v>
       </c>
-      <c r="J9" s="16">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
+      <c r="J9" s="37">
+        <v>0</v>
+      </c>
+      <c r="K9" s="25">
         <v>130</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="25">
         <v>1.61</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="25">
         <v>9580</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="36">
         <v>130</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="36">
         <v>279.04000000000002</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="36">
         <v>17447</v>
       </c>
-      <c r="R9" s="15">
+      <c r="R9" s="35">
         <f t="shared" si="1"/>
         <v>0.82118997912317326</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="43">
         <v>133</v>
       </c>
-      <c r="T9" s="15">
+      <c r="T9" s="44">
         <v>2.0447080139999998</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="43">
         <v>15272</v>
       </c>
-      <c r="V9" s="15">
+      <c r="V9" s="44">
         <f t="shared" si="2"/>
         <v>2.3076923076923078E-2</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="43">
         <v>130</v>
       </c>
-      <c r="X9" s="15">
+      <c r="X9" s="44">
         <v>3600.083498</v>
       </c>
-      <c r="Y9" s="6">
+      <c r="Y9" s="43">
         <v>10304</v>
       </c>
-      <c r="Z9" s="15">
+      <c r="Z9" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="15">
+      <c r="AA9" s="44">
         <f>(Y9-I9)/I9</f>
         <v>7.5574112734864307E-2</v>
       </c>
-      <c r="AB9" s="8">
+      <c r="AB9" s="51">
         <v>130</v>
       </c>
-      <c r="AC9" s="15">
+      <c r="AC9" s="50">
         <v>3600</v>
       </c>
-      <c r="AD9" s="8" t="s">
+      <c r="AD9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AE9" s="15" t="s">
+      <c r="AE9" s="50" t="s">
         <v>8</v>
       </c>
       <c r="AF9" s="8"/>
@@ -2867,96 +3265,96 @@
       <c r="B10" s="11">
         <v>7882</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="25">
         <v>144</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="25">
         <f>Beasley96!F36</f>
         <v>459</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="25">
         <v>10991</v>
       </c>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="F10" s="29">
+        <v>0</v>
+      </c>
+      <c r="G10" s="34">
         <v>134</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="36">
         <v>8.18</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="36">
         <v>13389</v>
       </c>
-      <c r="J10" s="16">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
+      <c r="J10" s="37">
+        <v>0</v>
+      </c>
+      <c r="K10" s="25">
         <v>144</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="25">
         <v>1.82</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="25">
         <v>10991</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="36">
         <v>134</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="36">
         <v>649.98</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="36">
         <v>20311</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="35">
         <f t="shared" si="1"/>
         <v>0.51699156023601467</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="43">
         <v>139</v>
       </c>
-      <c r="T10" s="15">
+      <c r="T10" s="44">
         <v>1.50744319</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="43">
         <v>16208</v>
       </c>
-      <c r="V10" s="15">
+      <c r="V10" s="44">
         <f t="shared" si="2"/>
         <v>3.7313432835820892E-2</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="43">
         <v>138</v>
       </c>
-      <c r="X10" s="15">
+      <c r="X10" s="44">
         <v>3600.0364340000001</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Y10" s="43">
         <v>14527</v>
       </c>
-      <c r="Z10" s="15">
+      <c r="Z10" s="44">
         <f t="shared" si="3"/>
         <v>2.9850746268656716E-2</v>
       </c>
-      <c r="AA10" s="15" t="s">
+      <c r="AA10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="AB10" s="8">
+      <c r="AB10" s="51">
         <v>134</v>
       </c>
-      <c r="AC10" s="15">
+      <c r="AC10" s="50">
         <v>3600</v>
       </c>
-      <c r="AD10" s="8" t="s">
+      <c r="AD10" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AE10" s="15" t="s">
+      <c r="AE10" s="50" t="s">
         <v>8</v>
       </c>
       <c r="AF10" s="8"/>
@@ -2973,96 +3371,96 @@
       <c r="B11" s="10">
         <v>10760</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="23">
         <v>159</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="23">
         <f>Beasley96!F41</f>
         <v>17176</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="30">
         <v>12341</v>
       </c>
-      <c r="F11" s="17">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="F11" s="31">
+        <v>0</v>
+      </c>
+      <c r="G11" s="34">
         <v>149</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="34">
         <v>114.28</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="36">
         <v>15118</v>
       </c>
-      <c r="J11" s="17">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
+      <c r="J11" s="38">
+        <v>0</v>
+      </c>
+      <c r="K11" s="23">
         <v>159</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="23">
         <v>2.66</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="25">
         <v>12341</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="34">
         <v>149</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="34">
         <v>159.44</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="36">
         <v>21067</v>
       </c>
-      <c r="R11" s="15">
+      <c r="R11" s="35">
         <f t="shared" si="1"/>
         <v>0.39350443180314859</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="43">
         <v>157</v>
       </c>
-      <c r="T11" s="15">
+      <c r="T11" s="44">
         <v>2.234162092</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="43">
         <v>18385</v>
       </c>
-      <c r="V11" s="15">
+      <c r="V11" s="44">
         <f t="shared" si="2"/>
         <v>5.3691275167785234E-2</v>
       </c>
-      <c r="W11" s="6">
+      <c r="W11" s="43">
         <v>153</v>
       </c>
-      <c r="X11" s="15">
+      <c r="X11" s="44">
         <v>3600.0460069999999</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="Y11" s="43">
         <v>17484</v>
       </c>
-      <c r="Z11" s="15">
+      <c r="Z11" s="44">
         <f t="shared" si="3"/>
         <v>2.6845637583892617E-2</v>
       </c>
-      <c r="AA11" s="15" t="s">
+      <c r="AA11" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="AB11" s="6">
+      <c r="AB11" s="49">
         <v>149</v>
       </c>
-      <c r="AC11" s="15">
+      <c r="AC11" s="50">
         <v>3600</v>
       </c>
-      <c r="AD11" s="6" t="s">
+      <c r="AD11" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AE11" s="15" t="s">
+      <c r="AE11" s="50" t="s">
         <v>8</v>
       </c>
       <c r="AF11" s="6"/>
@@ -3079,96 +3477,96 @@
       <c r="B12" s="10">
         <v>13510</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="23">
         <v>182</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="23">
         <f>Beasley96!F46</f>
         <v>17835</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="23">
         <v>12785</v>
       </c>
-      <c r="F12" s="15">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="F12" s="24">
+        <v>0</v>
+      </c>
+      <c r="G12" s="34">
         <v>177</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="34">
         <v>2.94</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="36">
         <v>13717</v>
       </c>
-      <c r="J12" s="15">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="J12" s="35">
+        <v>0</v>
+      </c>
+      <c r="K12" s="23">
         <v>182</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="23">
         <v>2.95</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="25">
         <v>12785</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="34">
         <v>177</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="34">
         <v>451.05</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="36">
         <v>22801</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="35">
         <f t="shared" si="1"/>
         <v>0.66224393088867828</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="43">
         <v>184</v>
       </c>
-      <c r="T12" s="15">
+      <c r="T12" s="44">
         <v>7.3393039699999996</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="43">
         <v>19174</v>
       </c>
-      <c r="V12" s="15">
+      <c r="V12" s="44">
         <f t="shared" si="2"/>
         <v>3.954802259887006E-2</v>
       </c>
-      <c r="W12" s="6">
+      <c r="W12" s="43">
         <v>184</v>
       </c>
-      <c r="X12" s="15">
+      <c r="X12" s="44">
         <v>3600.0279850000002</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="Y12" s="43">
         <v>19174</v>
       </c>
-      <c r="Z12" s="15">
+      <c r="Z12" s="44">
         <f t="shared" si="3"/>
         <v>3.954802259887006E-2</v>
       </c>
-      <c r="AA12" s="15" t="s">
+      <c r="AA12" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="AB12" s="6">
+      <c r="AB12" s="49">
         <v>177</v>
       </c>
-      <c r="AC12" s="15">
+      <c r="AC12" s="50">
         <v>3600</v>
       </c>
-      <c r="AD12" s="6" t="s">
+      <c r="AD12" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AE12" s="15" t="s">
+      <c r="AE12" s="50" t="s">
         <v>8</v>
       </c>
       <c r="AF12" s="6"/>
@@ -3185,96 +3583,96 @@
       <c r="B13" s="11">
         <v>16695</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="25">
         <v>204</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="25">
         <f>Beasley96!F51</f>
         <v>1545</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="25">
         <v>13302</v>
       </c>
-      <c r="F13" s="16">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="F13" s="29">
+        <v>0</v>
+      </c>
+      <c r="G13" s="34">
         <v>182</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="36">
         <v>112.24</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="36">
         <v>18134</v>
       </c>
-      <c r="J13" s="16">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
+      <c r="J13" s="37">
+        <v>0</v>
+      </c>
+      <c r="K13" s="25">
         <v>204</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="25">
         <v>3.7</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="25">
         <v>13302</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="36">
         <v>182</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="36">
         <v>1283.9100000000001</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="36">
         <v>25861</v>
       </c>
-      <c r="R13" s="15">
+      <c r="R13" s="35">
         <f t="shared" si="1"/>
         <v>0.42610565788022498</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="43">
         <v>197</v>
       </c>
-      <c r="T13" s="15">
+      <c r="T13" s="44">
         <v>5.3624141219999997</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="43">
         <v>19945</v>
       </c>
-      <c r="V13" s="15">
+      <c r="V13" s="44">
         <f t="shared" si="2"/>
         <v>8.2417582417582416E-2</v>
       </c>
-      <c r="W13" s="6">
+      <c r="W13" s="43">
         <v>197</v>
       </c>
-      <c r="X13" s="15">
+      <c r="X13" s="44">
         <v>3600.016329</v>
       </c>
-      <c r="Y13" s="6">
+      <c r="Y13" s="43">
         <v>19945</v>
       </c>
-      <c r="Z13" s="15">
+      <c r="Z13" s="44">
         <f t="shared" si="3"/>
         <v>8.2417582417582416E-2</v>
       </c>
-      <c r="AA13" s="15" t="s">
+      <c r="AA13" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="AB13" s="8">
+      <c r="AB13" s="51">
         <v>182</v>
       </c>
-      <c r="AC13" s="15">
+      <c r="AC13" s="50">
         <v>3600</v>
       </c>
-      <c r="AD13" s="8" t="s">
+      <c r="AD13" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AE13" s="15" t="s">
+      <c r="AE13" s="50" t="s">
         <v>8</v>
       </c>
       <c r="AF13" s="8"/>
@@ -3285,224 +3683,194 @@
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36">
+      <c r="B14" s="19"/>
+      <c r="C14" s="26">
         <f>AVERAGE(C4:C13)</f>
         <v>116</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="26">
         <f>AVERAGE(D4:D13)</f>
         <v>3770.1</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="26">
         <f>AVERAGE(E4:E13)</f>
         <v>8854.5</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="36">
+      <c r="F14" s="27"/>
+      <c r="G14" s="39">
         <f>AVERAGE(G4:G13)</f>
         <v>109.7</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="39">
         <f>AVERAGE(H4:H13)</f>
         <v>24.482999999999997</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="39">
         <f>AVERAGE(I4:I13)</f>
         <v>10476.1</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="36">
+      <c r="J14" s="40"/>
+      <c r="K14" s="26">
         <f>AVERAGE(K4:K13)</f>
         <v>116</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="26">
         <f>AVERAGE(L4:L13)</f>
         <v>1.8149999999999999</v>
       </c>
-      <c r="M14" s="36">
+      <c r="M14" s="26">
         <f>AVERAGE(M4:M13)</f>
         <v>8854.5</v>
       </c>
-      <c r="N14" s="37"/>
-      <c r="O14" s="36">
-        <f>AVERAGE(O4:O13)</f>
+      <c r="N14" s="27"/>
+      <c r="O14" s="39">
+        <f t="shared" ref="O14:T14" si="4">AVERAGE(O4:O13)</f>
         <v>109.7</v>
       </c>
-      <c r="P14" s="36">
-        <f>AVERAGE(P4:P13)</f>
+      <c r="P14" s="39">
+        <f t="shared" si="4"/>
         <v>284.05399999999997</v>
       </c>
-      <c r="Q14" s="36">
-        <f>AVERAGE(Q4:Q13)</f>
+      <c r="Q14" s="39">
+        <f t="shared" si="4"/>
         <v>15715.7</v>
       </c>
-      <c r="R14" s="36">
-        <f>AVERAGE(R4:R13)</f>
+      <c r="R14" s="39">
+        <f t="shared" si="4"/>
         <v>0.4968885725700517</v>
       </c>
-      <c r="S14" s="36">
-        <f>AVERAGE(S4:S13)</f>
+      <c r="S14" s="45">
+        <f t="shared" si="4"/>
         <v>114.9</v>
       </c>
-      <c r="T14" s="36">
-        <f>AVERAGE(T4:T13)</f>
+      <c r="T14" s="45">
+        <f t="shared" si="4"/>
         <v>1.9279141426784001</v>
       </c>
-      <c r="U14" s="37"/>
-      <c r="V14" s="36">
+      <c r="U14" s="46"/>
+      <c r="V14" s="45">
         <f>AVERAGE(V4:V13)</f>
         <v>4.457487286342951E-2</v>
       </c>
-      <c r="W14" s="36">
+      <c r="W14" s="45">
         <f>AVERAGE(W4:W13)</f>
         <v>112.8</v>
       </c>
-      <c r="X14" s="36">
+      <c r="X14" s="45">
         <f>AVERAGE(X4:X13)</f>
         <v>3240.3044001792005</v>
       </c>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="36">
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="45">
         <f>AVERAGE(Z4:Z13)</f>
         <v>1.9056675077376371E-2</v>
       </c>
-      <c r="AA14" s="36">
+      <c r="AA14" s="45">
         <f>AVERAGE(AA4:AA13)</f>
         <v>3.3748040384594905E-2</v>
       </c>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="37"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="52"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AB1:AE2"/>
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="W2:AA2"/>
     <mergeCell ref="C1:F2"/>
@@ -3510,39 +3878,527 @@
     <mergeCell ref="K1:N2"/>
     <mergeCell ref="O1:R2"/>
     <mergeCell ref="S1:AA1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AB1:AE2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G4:G13">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="lessThan">
+  <conditionalFormatting sqref="G4:H13 L4:L13 P4:P13">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="lessThan">
       <formula>C4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G13">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="lessThan">
       <formula>$C$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H13">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
-      <formula>D4</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="W4:W13">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>G4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L13">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>H4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4:P13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>L4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A387EE-8796-1C4F-AD7D-AA9549EEEE3B}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+    </row>
+    <row r="3" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>50</v>
+      </c>
+      <c r="B4" s="23">
+        <v>27</v>
+      </c>
+      <c r="C4" s="23">
+        <v>2</v>
+      </c>
+      <c r="D4" s="23">
+        <v>3139</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="43">
+        <v>27</v>
+      </c>
+      <c r="G4" s="55">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="43">
+        <v>3139</v>
+      </c>
+      <c r="I4" s="44">
+        <v>0</v>
+      </c>
+      <c r="J4" s="49">
+        <v>27</v>
+      </c>
+      <c r="K4" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="L4" s="49">
+        <v>3139</v>
+      </c>
+      <c r="M4" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>100</v>
+      </c>
+      <c r="B5" s="23">
+        <v>44</v>
+      </c>
+      <c r="C5" s="23">
+        <v>8</v>
+      </c>
+      <c r="D5" s="23">
+        <v>4812</v>
+      </c>
+      <c r="E5" s="24">
+        <v>0</v>
+      </c>
+      <c r="F5" s="43">
+        <v>44</v>
+      </c>
+      <c r="G5" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="H5" s="43">
+        <v>4812</v>
+      </c>
+      <c r="I5" s="44">
+        <v>0</v>
+      </c>
+      <c r="J5" s="49">
+        <v>44</v>
+      </c>
+      <c r="K5" s="55">
+        <v>0.9</v>
+      </c>
+      <c r="L5" s="49">
+        <v>4812</v>
+      </c>
+      <c r="M5" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>150</v>
+      </c>
+      <c r="B6" s="23">
+        <v>69</v>
+      </c>
+      <c r="C6" s="23">
+        <v>150</v>
+      </c>
+      <c r="D6" s="23">
+        <v>6275</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0</v>
+      </c>
+      <c r="F6" s="43">
+        <v>69</v>
+      </c>
+      <c r="G6" s="55">
+        <v>1</v>
+      </c>
+      <c r="H6" s="43">
+        <v>6275</v>
+      </c>
+      <c r="I6" s="44">
+        <v>0</v>
+      </c>
+      <c r="J6" s="49">
+        <v>69</v>
+      </c>
+      <c r="K6" s="55">
+        <v>1</v>
+      </c>
+      <c r="L6" s="49">
+        <v>6275</v>
+      </c>
+      <c r="M6" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>200</v>
+      </c>
+      <c r="B7" s="23">
+        <v>93</v>
+      </c>
+      <c r="C7" s="23">
+        <v>61</v>
+      </c>
+      <c r="D7" s="23">
+        <v>6914</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0</v>
+      </c>
+      <c r="F7" s="43">
+        <v>93</v>
+      </c>
+      <c r="G7" s="55">
+        <v>1</v>
+      </c>
+      <c r="H7" s="43">
+        <v>6914</v>
+      </c>
+      <c r="I7" s="44">
+        <v>0</v>
+      </c>
+      <c r="J7" s="49">
+        <v>93</v>
+      </c>
+      <c r="K7" s="55">
+        <v>1</v>
+      </c>
+      <c r="L7" s="49">
+        <v>6914</v>
+      </c>
+      <c r="M7" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>250</v>
+      </c>
+      <c r="B8" s="23">
+        <v>108</v>
+      </c>
+      <c r="C8" s="23">
+        <v>205</v>
+      </c>
+      <c r="D8" s="23">
+        <v>8406</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="43">
+        <v>108</v>
+      </c>
+      <c r="G8" s="55">
+        <v>3</v>
+      </c>
+      <c r="H8" s="43">
+        <v>8406</v>
+      </c>
+      <c r="I8" s="44">
+        <v>0</v>
+      </c>
+      <c r="J8" s="49">
+        <v>108</v>
+      </c>
+      <c r="K8" s="55">
+        <v>2</v>
+      </c>
+      <c r="L8" s="49">
+        <v>8406</v>
+      </c>
+      <c r="M8" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>300</v>
+      </c>
+      <c r="B9" s="25">
+        <v>130</v>
+      </c>
+      <c r="C9" s="25">
+        <v>260</v>
+      </c>
+      <c r="D9" s="25">
+        <v>9580</v>
+      </c>
+      <c r="E9" s="29">
+        <v>0</v>
+      </c>
+      <c r="F9" s="54">
+        <v>130</v>
+      </c>
+      <c r="G9" s="55">
+        <v>14</v>
+      </c>
+      <c r="H9" s="43">
+        <v>9580</v>
+      </c>
+      <c r="I9" s="56">
+        <v>0</v>
+      </c>
+      <c r="J9" s="51">
+        <v>130</v>
+      </c>
+      <c r="K9" s="55">
+        <v>1</v>
+      </c>
+      <c r="L9" s="49">
+        <v>9580</v>
+      </c>
+      <c r="M9" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>350</v>
+      </c>
+      <c r="B10" s="25">
+        <v>144</v>
+      </c>
+      <c r="C10" s="25">
+        <v>459</v>
+      </c>
+      <c r="D10" s="25">
+        <v>10991</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0</v>
+      </c>
+      <c r="F10" s="54">
+        <v>144</v>
+      </c>
+      <c r="G10" s="55">
+        <v>15</v>
+      </c>
+      <c r="H10" s="43">
+        <v>10991</v>
+      </c>
+      <c r="I10" s="56">
+        <v>0</v>
+      </c>
+      <c r="J10" s="51">
+        <v>144</v>
+      </c>
+      <c r="K10" s="55">
+        <v>2</v>
+      </c>
+      <c r="L10" s="49">
+        <v>10991</v>
+      </c>
+      <c r="M10" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>400</v>
+      </c>
+      <c r="B11" s="23">
+        <v>159</v>
+      </c>
+      <c r="C11" s="23">
+        <v>17176</v>
+      </c>
+      <c r="D11" s="30">
+        <v>12341</v>
+      </c>
+      <c r="E11" s="31">
+        <v>0</v>
+      </c>
+      <c r="F11" s="43">
+        <v>159</v>
+      </c>
+      <c r="G11" s="55">
+        <v>37</v>
+      </c>
+      <c r="H11" s="43">
+        <v>12341</v>
+      </c>
+      <c r="I11" s="57">
+        <v>0</v>
+      </c>
+      <c r="J11" s="49">
+        <v>159</v>
+      </c>
+      <c r="K11" s="55">
+        <v>8</v>
+      </c>
+      <c r="L11" s="49">
+        <v>12341</v>
+      </c>
+      <c r="M11" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>450</v>
+      </c>
+      <c r="B12" s="23">
+        <v>182</v>
+      </c>
+      <c r="C12" s="23">
+        <v>17835</v>
+      </c>
+      <c r="D12" s="23">
+        <v>12785</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0</v>
+      </c>
+      <c r="F12" s="43">
+        <v>182</v>
+      </c>
+      <c r="G12" s="55">
+        <v>61</v>
+      </c>
+      <c r="H12" s="43">
+        <v>12785</v>
+      </c>
+      <c r="I12" s="44">
+        <v>0</v>
+      </c>
+      <c r="J12" s="49">
+        <v>182</v>
+      </c>
+      <c r="K12" s="55">
+        <v>8</v>
+      </c>
+      <c r="L12" s="49">
+        <v>12785</v>
+      </c>
+      <c r="M12" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>500</v>
+      </c>
+      <c r="B13" s="25">
+        <v>204</v>
+      </c>
+      <c r="C13" s="25">
+        <v>1545</v>
+      </c>
+      <c r="D13" s="25">
+        <v>13302</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0</v>
+      </c>
+      <c r="F13" s="54">
+        <v>204</v>
+      </c>
+      <c r="G13" s="55">
+        <v>156</v>
+      </c>
+      <c r="H13" s="43">
+        <v>13302</v>
+      </c>
+      <c r="I13" s="56">
+        <v>0</v>
+      </c>
+      <c r="J13" s="51">
+        <v>204</v>
+      </c>
+      <c r="K13" s="55">
+        <v>7</v>
+      </c>
+      <c r="L13" s="49">
+        <v>13302</v>
+      </c>
+      <c r="M13" s="49">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="F1:I2"/>
+    <mergeCell ref="J1:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>